--- a/data/41期+Web自动化每日优鲜项目+杜健+测试用例.xlsx
+++ b/data/41期+Web自动化每日优鲜项目+杜健+测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7785" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="4" r:id="rId1"/>
@@ -314,11 +314,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -433,26 +433,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,7 +480,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,17 +488,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,12 +547,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -541,38 +567,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -608,7 +608,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +704,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,13 +728,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,67 +770,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,73 +782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,41 +1022,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,22 +1046,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,6 +1084,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1127,10 +1127,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1139,136 +1139,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
@@ -2247,7 +2247,7 @@
   <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
